--- a/Data/Production/production.xlsx
+++ b/Data/Production/production.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/EconomicCycle/Data/Production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C4B6E-0096-0F4D-8DF5-A4EF1B3A2DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB3AE8-FB2D-594A-98FD-896BEE7CF3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="337">
   <si>
     <t>2000.01</t>
   </si>
@@ -1014,6 +1014,24 @@
   </si>
   <si>
     <t>admin_prod_idx</t>
+  </si>
+  <si>
+    <t>gen_machine_idx</t>
+  </si>
+  <si>
+    <t>elec_machine_idx</t>
+  </si>
+  <si>
+    <t>prec_machine_idx</t>
+  </si>
+  <si>
+    <t>other_device_idx</t>
+  </si>
+  <si>
+    <t>vehicle_idx</t>
+  </si>
+  <si>
+    <t>other_vehicle_idx</t>
   </si>
 </sst>
 </file>
@@ -1423,15 +1441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:L286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
@@ -1450,8 +1468,26 @@
       <c r="F1" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1470,8 +1506,26 @@
       <c r="F2" s="3">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="3">
+        <v>48.9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45.7</v>
+      </c>
+      <c r="J2" s="3">
+        <v>87.8</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="L2" s="3">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1490,8 +1544,26 @@
       <c r="F3" s="3">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K3" s="3">
+        <v>75</v>
+      </c>
+      <c r="L3" s="3">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1510,8 +1582,26 @@
       <c r="F4" s="3">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1620,26 @@
       <c r="F5" s="3">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H5" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I5" s="3">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3">
+        <v>88</v>
+      </c>
+      <c r="K5" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1550,8 +1658,26 @@
       <c r="F6" s="3">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>52.1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1570,8 +1696,26 @@
       <c r="F7" s="3">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>58</v>
+      </c>
+      <c r="I7" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="K7" s="3">
+        <v>84</v>
+      </c>
+      <c r="L7" s="3">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1590,8 +1734,26 @@
       <c r="F8" s="3">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="3">
+        <v>58.8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>62.7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>85.3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1610,8 +1772,26 @@
       <c r="F9" s="3">
         <v>59.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H9" s="3">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="I9" s="3">
+        <v>55.7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>83.4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1630,8 +1810,26 @@
       <c r="F10" s="3">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>59.1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="K10" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="L10" s="3">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1650,8 +1848,26 @@
       <c r="F11" s="3">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="3">
+        <v>51.1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1670,8 +1886,26 @@
       <c r="F12" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <v>48.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>54.3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K12" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1690,8 +1924,26 @@
       <c r="F13" s="3">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>57.6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>61.1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1710,8 +1962,26 @@
       <c r="F14" s="3">
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="3">
+        <v>47.4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>49.1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="J14" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>68</v>
+      </c>
+      <c r="L14" s="3">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1730,8 +2000,26 @@
       <c r="F15" s="3">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>47.3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="J15" s="3">
+        <v>74</v>
+      </c>
+      <c r="K15" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1750,8 +2038,26 @@
       <c r="F16" s="3">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>55.9</v>
+      </c>
+      <c r="I16" s="3">
+        <v>59.7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>85.7</v>
+      </c>
+      <c r="L16" s="3">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1770,8 +2076,26 @@
       <c r="F17" s="3">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>56.8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="L17" s="3">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1790,8 +2114,26 @@
       <c r="F18" s="3">
         <v>60.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>88.1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1810,8 +2152,26 @@
       <c r="F19" s="3">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>46.8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="K19" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="L19" s="3">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1830,8 +2190,26 @@
       <c r="F20" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>50.7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>76</v>
+      </c>
+      <c r="K20" s="3">
+        <v>87.4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1850,8 +2228,26 @@
       <c r="F21" s="3">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <v>44.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>47.6</v>
+      </c>
+      <c r="I21" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="J21" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="L21" s="3">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1870,8 +2266,26 @@
       <c r="F22" s="3">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <v>44.2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="K22" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1890,8 +2304,26 @@
       <c r="F23" s="3">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="3">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H23" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>47.6</v>
+      </c>
+      <c r="J23" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="L23" s="3">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1910,8 +2342,26 @@
       <c r="F24" s="3">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H24" s="3">
+        <v>56.8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>51.1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1930,8 +2380,26 @@
       <c r="F25" s="3">
         <v>88.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>66</v>
+      </c>
+      <c r="I25" s="3">
+        <v>54.6</v>
+      </c>
+      <c r="J25" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="K25" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="L25" s="3">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1950,8 +2418,26 @@
       <c r="F26" s="3">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="3">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="L26" s="3">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1970,8 +2456,26 @@
       <c r="F27" s="3">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H27" s="3">
+        <v>56.9</v>
+      </c>
+      <c r="I27" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="K27" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="L27" s="3">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1990,8 +2494,26 @@
       <c r="F28" s="3">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="3">
+        <v>59.3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>90.3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2010,8 +2532,26 @@
       <c r="F29" s="3">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>62.2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2030,8 +2570,26 @@
       <c r="F30" s="3">
         <v>63.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>87</v>
+      </c>
+      <c r="K30" s="3">
+        <v>104.4</v>
+      </c>
+      <c r="L30" s="3">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2050,8 +2608,26 @@
       <c r="F31" s="3">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="3">
+        <v>57.1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="L31" s="3">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2070,8 +2646,26 @@
       <c r="F32" s="3">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>55.6</v>
+      </c>
+      <c r="J32" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="K32" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="L32" s="3">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2090,8 +2684,26 @@
       <c r="F33" s="3">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="H33" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="K33" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="L33" s="3">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2722,26 @@
       <c r="F34" s="3">
         <v>73.099999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="H34" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="I34" s="3">
+        <v>59.4</v>
+      </c>
+      <c r="J34" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="L34" s="3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2130,8 +2760,26 @@
       <c r="F35" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>62.8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="K35" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="L35" s="3">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2150,8 +2798,26 @@
       <c r="F36" s="3">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="I36" s="3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="J36" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="K36" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2170,8 +2836,26 @@
       <c r="F37" s="3">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I37" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="J37" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="L37" s="3">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2190,8 +2874,26 @@
       <c r="F38" s="3">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="3">
+        <v>44.5</v>
+      </c>
+      <c r="H38" s="3">
+        <v>49.3</v>
+      </c>
+      <c r="I38" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="J38" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="K38" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="L38" s="3">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2210,8 +2912,26 @@
       <c r="F39" s="3">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="3">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H39" s="3">
+        <v>46.2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>55.1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="L39" s="3">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2230,8 +2950,26 @@
       <c r="F40" s="3">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H40" s="3">
+        <v>65.8</v>
+      </c>
+      <c r="I40" s="3">
+        <v>60.1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2250,8 +2988,26 @@
       <c r="F41" s="3">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H41" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>63.8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>85.7</v>
+      </c>
+      <c r="K41" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="L41" s="3">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2270,8 +3026,26 @@
       <c r="F42" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="3">
+        <v>54.1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="I42" s="3">
+        <v>55.5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="K42" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2290,8 +3064,26 @@
       <c r="F43" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="3">
+        <v>58.3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I43" s="3">
+        <v>58.7</v>
+      </c>
+      <c r="J43" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2310,8 +3102,26 @@
       <c r="F44" s="3">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="3">
+        <v>54.4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>55.2</v>
+      </c>
+      <c r="I44" s="3">
+        <v>52.7</v>
+      </c>
+      <c r="J44" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="K44" s="3">
+        <v>71</v>
+      </c>
+      <c r="L44" s="3">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2330,8 +3140,26 @@
       <c r="F45" s="3">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="3">
+        <v>49</v>
+      </c>
+      <c r="H45" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="I45" s="3">
+        <v>51.5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>80</v>
+      </c>
+      <c r="K45" s="3">
+        <v>64.3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2350,8 +3178,26 @@
       <c r="F46" s="3">
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="H46" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="I46" s="3">
+        <v>53.4</v>
+      </c>
+      <c r="J46" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K46" s="3">
+        <v>69</v>
+      </c>
+      <c r="L46" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2370,8 +3216,26 @@
       <c r="F47" s="3">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>59.7</v>
+      </c>
+      <c r="J47" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="L47" s="3">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2390,8 +3254,26 @@
       <c r="F48" s="3">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="H48" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="I48" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="K48" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="L48" s="3">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2410,8 +3292,26 @@
       <c r="F49" s="3">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="H49" s="3">
+        <v>64</v>
+      </c>
+      <c r="I49" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="J49" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>77</v>
+      </c>
+      <c r="L49" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2430,8 +3330,26 @@
       <c r="F50" s="3">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="H50" s="3">
+        <v>49</v>
+      </c>
+      <c r="I50" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="J50" s="3">
+        <v>78</v>
+      </c>
+      <c r="K50" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="L50" s="3">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2450,8 +3368,26 @@
       <c r="F51" s="3">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G51" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="H51" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="I51" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>93</v>
+      </c>
+      <c r="K51" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="L51" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2470,8 +3406,26 @@
       <c r="F52" s="3">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I52" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J52" s="3">
+        <v>89.2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="L52" s="3">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -2490,8 +3444,26 @@
       <c r="F53" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="3">
+        <v>67.5</v>
+      </c>
+      <c r="H53" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="I53" s="3">
+        <v>62.7</v>
+      </c>
+      <c r="J53" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="K53" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="L53" s="3">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -2510,8 +3482,26 @@
       <c r="F54" s="3">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="H54" s="3">
+        <v>54.5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="J54" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K54" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="L54" s="3">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -2530,8 +3520,26 @@
       <c r="F55" s="3">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="3">
+        <v>77.3</v>
+      </c>
+      <c r="H55" s="3">
+        <v>59.3</v>
+      </c>
+      <c r="I55" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="J55" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="K55" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L55" s="3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2550,8 +3558,26 @@
       <c r="F56" s="3">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="3">
+        <v>70.2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>68</v>
+      </c>
+      <c r="J56" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="K56" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="L56" s="3">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -2570,8 +3596,26 @@
       <c r="F57" s="3">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H57" s="3">
+        <v>55.6</v>
+      </c>
+      <c r="I57" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="K57" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="L57" s="3">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -2590,8 +3634,26 @@
       <c r="F58" s="3">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="H58" s="3">
+        <v>59</v>
+      </c>
+      <c r="I58" s="3">
+        <v>59.8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>58.7</v>
+      </c>
+      <c r="L58" s="3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2610,8 +3672,26 @@
       <c r="F59" s="3">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="I59" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="J59" s="3">
+        <v>84.7</v>
+      </c>
+      <c r="K59" s="3">
+        <v>60</v>
+      </c>
+      <c r="L59" s="3">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -2630,8 +3710,26 @@
       <c r="F60" s="3">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="3">
+        <v>54.2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="I60" s="3">
+        <v>65.7</v>
+      </c>
+      <c r="J60" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K60" s="3">
+        <v>57.1</v>
+      </c>
+      <c r="L60" s="3">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -2650,8 +3748,26 @@
       <c r="F61" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="3">
+        <v>54.6</v>
+      </c>
+      <c r="H61" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I61" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J61" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="K61" s="3">
+        <v>67</v>
+      </c>
+      <c r="L61" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -2670,8 +3786,26 @@
       <c r="F62" s="3">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="H62" s="3">
+        <v>54.7</v>
+      </c>
+      <c r="I62" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>62.4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>56.9</v>
+      </c>
+      <c r="L62" s="3">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3824,26 @@
       <c r="F63" s="3">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="H63" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="I63" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="J63" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="K63" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="L63" s="3">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -2710,8 +3862,26 @@
       <c r="F64" s="3">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="H64" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="I64" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="J64" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="K64" s="3">
+        <v>60</v>
+      </c>
+      <c r="L64" s="3">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -2730,8 +3900,26 @@
       <c r="F65" s="3">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="H65" s="3">
+        <v>57.6</v>
+      </c>
+      <c r="I65" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="J65" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K65" s="3">
+        <v>62.9</v>
+      </c>
+      <c r="L65" s="3">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -2750,8 +3938,26 @@
       <c r="F66" s="3">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H66" s="3">
+        <v>59.1</v>
+      </c>
+      <c r="I66" s="3">
+        <v>65.2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="K66" s="3">
+        <v>61</v>
+      </c>
+      <c r="L66" s="3">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -2770,8 +3976,26 @@
       <c r="F67" s="3">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="H67" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="I67" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="J67" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="K67" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -2790,8 +4014,26 @@
       <c r="F68" s="3">
         <v>73.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H68" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="I68" s="3">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J68" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K68" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="L68" s="3">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -2810,8 +4052,26 @@
       <c r="F69" s="3">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="H69" s="3">
+        <v>59.6</v>
+      </c>
+      <c r="I69" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J69" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="K69" s="3">
+        <v>58</v>
+      </c>
+      <c r="L69" s="3">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -2830,8 +4090,26 @@
       <c r="F70" s="3">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="3">
+        <v>63.3</v>
+      </c>
+      <c r="H70" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I70" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="J70" s="3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="K70" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="L70" s="3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -2850,8 +4128,26 @@
       <c r="F71" s="3">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="3">
+        <v>68.7</v>
+      </c>
+      <c r="H71" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="I71" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="J71" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K71" s="3">
+        <v>58.7</v>
+      </c>
+      <c r="L71" s="3">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -2870,8 +4166,26 @@
       <c r="F72" s="3">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H72" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="I72" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="J72" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K72" s="3">
+        <v>67.3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -2890,8 +4204,26 @@
       <c r="F73" s="3">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H73" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="I73" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J73" s="3">
+        <v>80.2</v>
+      </c>
+      <c r="K73" s="3">
+        <v>72.8</v>
+      </c>
+      <c r="L73" s="3">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -2910,8 +4242,26 @@
       <c r="F74" s="3">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="3">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="H74" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="I74" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J74" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K74" s="3">
+        <v>52.4</v>
+      </c>
+      <c r="L74" s="3">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -2930,8 +4280,26 @@
       <c r="F75" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I75" s="3">
+        <v>73</v>
+      </c>
+      <c r="J75" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="L75" s="3">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -2950,8 +4318,26 @@
       <c r="F76" s="3">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="H76" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="K76" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="L76" s="3">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -2970,8 +4356,26 @@
       <c r="F77" s="3">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="H77" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="I77" s="3">
+        <v>84.8</v>
+      </c>
+      <c r="J77" s="3">
+        <v>85.4</v>
+      </c>
+      <c r="K77" s="3">
+        <v>59.7</v>
+      </c>
+      <c r="L77" s="3">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +4394,26 @@
       <c r="F78" s="3">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="H78" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="I78" s="3">
+        <v>91</v>
+      </c>
+      <c r="J78" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="K78" s="3">
+        <v>63</v>
+      </c>
+      <c r="L78" s="3">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3010,8 +4432,26 @@
       <c r="F79" s="3">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H79" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I79" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="J79" s="3">
+        <v>84.2</v>
+      </c>
+      <c r="K79" s="3">
+        <v>61.6</v>
+      </c>
+      <c r="L79" s="3">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3030,8 +4470,26 @@
       <c r="F80" s="3">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="H80" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="I80" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="J80" s="3">
+        <v>72</v>
+      </c>
+      <c r="K80" s="3">
+        <v>41.1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -3050,8 +4508,26 @@
       <c r="F81" s="3">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="H81" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I81" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="J81" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="K81" s="3">
+        <v>59.4</v>
+      </c>
+      <c r="L81" s="3">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -3070,8 +4546,26 @@
       <c r="F82" s="3">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H82" s="3">
+        <v>78</v>
+      </c>
+      <c r="I82" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="K82" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="L82" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -3090,8 +4584,26 @@
       <c r="F83" s="3">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="H83" s="3">
+        <v>79</v>
+      </c>
+      <c r="I83" s="3">
+        <v>80</v>
+      </c>
+      <c r="J83" s="3">
+        <v>87</v>
+      </c>
+      <c r="K83" s="3">
+        <v>58.1</v>
+      </c>
+      <c r="L83" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -3110,8 +4622,26 @@
       <c r="F84" s="3">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="H84" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="J84" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="K84" s="3">
+        <v>65</v>
+      </c>
+      <c r="L84" s="3">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -3130,8 +4660,26 @@
       <c r="F85" s="3">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="3">
+        <v>82</v>
+      </c>
+      <c r="H85" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="I85" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="J85" s="3">
+        <v>90.9</v>
+      </c>
+      <c r="K85" s="3">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="L85" s="3">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -3150,8 +4698,26 @@
       <c r="F86" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="H86" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I86" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="J86" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="K86" s="3">
+        <v>63.1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -3170,8 +4736,26 @@
       <c r="F87" s="3">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="H87" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I87" s="3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="J87" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="K87" s="3">
+        <v>60.4</v>
+      </c>
+      <c r="L87" s="3">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -3190,8 +4774,26 @@
       <c r="F88" s="3">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="H88" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="I88" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="K88" s="3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="L88" s="3">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -3210,8 +4812,26 @@
       <c r="F89" s="3">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="3">
+        <v>104.6</v>
+      </c>
+      <c r="H89" s="3">
+        <v>76</v>
+      </c>
+      <c r="I89" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>64.8</v>
+      </c>
+      <c r="L89" s="3">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -3230,8 +4850,26 @@
       <c r="F90" s="3">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>74.5</v>
+      </c>
+      <c r="I90" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="J90" s="3">
+        <v>84.8</v>
+      </c>
+      <c r="K90" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="L90" s="3">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -3250,8 +4888,26 @@
       <c r="F91" s="3">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="3">
+        <v>89.2</v>
+      </c>
+      <c r="H91" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>84</v>
+      </c>
+      <c r="J91" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="K91" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="L91" s="3">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -3270,8 +4926,26 @@
       <c r="F92" s="3">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="H92" s="3">
+        <v>71</v>
+      </c>
+      <c r="I92" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="J92" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K92" s="3">
+        <v>60.5</v>
+      </c>
+      <c r="L92" s="3">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -3290,8 +4964,26 @@
       <c r="F93" s="3">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H93" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="I93" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J93" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="K93" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="L93" s="3">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -3310,8 +5002,26 @@
       <c r="F94" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G94" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="H94" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I94" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J94" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K94" s="3">
+        <v>55.8</v>
+      </c>
+      <c r="L94" s="3">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -3330,8 +5040,26 @@
       <c r="F95" s="3">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G95" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="I95" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="J95" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="K95" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="L95" s="3">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -3350,8 +5078,26 @@
       <c r="F96" s="3">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G96" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="H96" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="I96" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="J96" s="3">
+        <v>101.7</v>
+      </c>
+      <c r="K96" s="3">
+        <v>76.2</v>
+      </c>
+      <c r="L96" s="3">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -3370,8 +5116,26 @@
       <c r="F97" s="3">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="H97" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="I97" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="J97" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="K97" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="L97" s="3">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -3390,8 +5154,26 @@
       <c r="F98" s="3">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="H98" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="I98" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="J98" s="3">
+        <v>92</v>
+      </c>
+      <c r="K98" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="L98" s="3">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -3410,8 +5192,26 @@
       <c r="F99" s="3">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H99" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="I99" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="J99" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="K99" s="3">
+        <v>57.8</v>
+      </c>
+      <c r="L99" s="3">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -3430,8 +5230,26 @@
       <c r="F100" s="3">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>84</v>
+      </c>
+      <c r="I100" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="J100" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="K100" s="3">
+        <v>75.8</v>
+      </c>
+      <c r="L100" s="3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -3450,8 +5268,26 @@
       <c r="F101" s="3">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="3">
+        <v>91</v>
+      </c>
+      <c r="H101" s="3">
+        <v>81.2</v>
+      </c>
+      <c r="I101" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="K101" s="3">
+        <v>70.7</v>
+      </c>
+      <c r="L101" s="3">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -3470,8 +5306,26 @@
       <c r="F102" s="3">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="3">
+        <v>83.2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I102" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="J102" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -3490,8 +5344,26 @@
       <c r="F103" s="3">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="I103" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="J103" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="K103" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="L103" s="3">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -3510,8 +5382,26 @@
       <c r="F104" s="3">
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="H104" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="I104" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="J104" s="3">
+        <v>89.3</v>
+      </c>
+      <c r="K104" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="L104" s="3">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -3530,8 +5420,26 @@
       <c r="F105" s="3">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="I105" s="3">
+        <v>79.7</v>
+      </c>
+      <c r="J105" s="3">
+        <v>85.2</v>
+      </c>
+      <c r="K105" s="3">
+        <v>62.8</v>
+      </c>
+      <c r="L105" s="3">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -3550,8 +5458,26 @@
       <c r="F106" s="3">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G106" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="H106" s="3">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I106" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="J106" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="K106" s="3">
+        <v>56.4</v>
+      </c>
+      <c r="L106" s="3">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -3570,8 +5496,26 @@
       <c r="F107" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G107" s="3">
+        <v>69</v>
+      </c>
+      <c r="H107" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="I107" s="3">
+        <v>92.8</v>
+      </c>
+      <c r="J107" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="K107" s="3">
+        <v>79.8</v>
+      </c>
+      <c r="L107" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -3590,8 +5534,26 @@
       <c r="F108" s="3">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H108" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I108" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="J108" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="K108" s="3">
+        <v>53.4</v>
+      </c>
+      <c r="L108" s="3">
+        <v>129.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -3610,8 +5572,26 @@
       <c r="F109" s="3">
         <v>109.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="H109" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I109" s="3">
+        <v>86</v>
+      </c>
+      <c r="J109" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="K109" s="3">
+        <v>61.6</v>
+      </c>
+      <c r="L109" s="3">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -3630,8 +5610,26 @@
       <c r="F110" s="3">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G110" s="3">
+        <v>45.9</v>
+      </c>
+      <c r="H110" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="I110" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="J110" s="3">
+        <v>69.7</v>
+      </c>
+      <c r="K110" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="L110" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -3650,8 +5648,26 @@
       <c r="F111" s="3">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G111" s="3">
+        <v>56.2</v>
+      </c>
+      <c r="H111" s="3">
+        <v>61.9</v>
+      </c>
+      <c r="I111" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="J111" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="K111" s="3">
+        <v>53.6</v>
+      </c>
+      <c r="L111" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -3670,8 +5686,26 @@
       <c r="F112" s="3">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G112" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="H112" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="I112" s="3">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="J112" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="K112" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="L112" s="3">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -3690,8 +5724,26 @@
       <c r="F113" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G113" s="3">
+        <v>62</v>
+      </c>
+      <c r="H113" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I113" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="J113" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="K113" s="3">
+        <v>62</v>
+      </c>
+      <c r="L113" s="3">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -3710,8 +5762,26 @@
       <c r="F114" s="3">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G114" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="H114" s="3">
+        <v>66.3</v>
+      </c>
+      <c r="I114" s="3">
+        <v>67.5</v>
+      </c>
+      <c r="J114" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="K114" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="L114" s="3">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -3730,8 +5800,26 @@
       <c r="F115" s="3">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="H115" s="3">
+        <v>82.3</v>
+      </c>
+      <c r="I115" s="3">
+        <v>85</v>
+      </c>
+      <c r="J115" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="K115" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="L115" s="3">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
@@ -3750,8 +5838,26 @@
       <c r="F116" s="3">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="H116" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I116" s="3">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="J116" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="K116" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="L116" s="3">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
@@ -3770,8 +5876,26 @@
       <c r="F117" s="3">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="3">
+        <v>62.2</v>
+      </c>
+      <c r="H117" s="3">
+        <v>69.3</v>
+      </c>
+      <c r="I117" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="J117" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="K117" s="3">
+        <v>63.1</v>
+      </c>
+      <c r="L117" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
@@ -3790,8 +5914,26 @@
       <c r="F118" s="3">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="H118" s="3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I118" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="J118" s="3">
+        <v>89</v>
+      </c>
+      <c r="K118" s="3">
+        <v>79</v>
+      </c>
+      <c r="L118" s="3">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
@@ -3810,8 +5952,26 @@
       <c r="F119" s="3">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G119" s="3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H119" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I119" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="J119" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="K119" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="L119" s="3">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
@@ -3830,8 +5990,26 @@
       <c r="F120" s="3">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G120" s="3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H120" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="I120" s="3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J120" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="K120" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="L120" s="3">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
@@ -3850,8 +6028,26 @@
       <c r="F121" s="3">
         <v>109.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G121" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="H121" s="3">
+        <v>92.8</v>
+      </c>
+      <c r="I121" s="3">
+        <v>91</v>
+      </c>
+      <c r="J121" s="3">
+        <v>112.7</v>
+      </c>
+      <c r="K121" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="L121" s="3">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
@@ -3870,8 +6066,26 @@
       <c r="F122" s="3">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G122" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="H122" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="I122" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="J122" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="K122" s="3">
+        <v>67.7</v>
+      </c>
+      <c r="L122" s="3">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
@@ -3890,8 +6104,26 @@
       <c r="F123" s="3">
         <v>90.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G123" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="H123" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="I123" s="3">
+        <v>73</v>
+      </c>
+      <c r="J123" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="K123" s="3">
+        <v>62.1</v>
+      </c>
+      <c r="L123" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
@@ -3910,8 +6142,26 @@
       <c r="F124" s="3">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="3">
+        <v>113.1</v>
+      </c>
+      <c r="H124" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="I124" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="J124" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="K124" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="L124" s="3">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
@@ -3930,8 +6180,26 @@
       <c r="F125" s="3">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="3">
+        <v>102.2</v>
+      </c>
+      <c r="H125" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="I125" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="J125" s="3">
+        <v>97.3</v>
+      </c>
+      <c r="K125" s="3">
+        <v>69</v>
+      </c>
+      <c r="L125" s="3">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
@@ -3950,8 +6218,26 @@
       <c r="F126" s="3">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G126" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="H126" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="I126" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="J126" s="3">
+        <v>91</v>
+      </c>
+      <c r="K126" s="3">
+        <v>66.8</v>
+      </c>
+      <c r="L126" s="3">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>125</v>
       </c>
@@ -3970,8 +6256,26 @@
       <c r="F127" s="3">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G127" s="3">
+        <v>110.3</v>
+      </c>
+      <c r="H127" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="I127" s="3">
+        <v>88.7</v>
+      </c>
+      <c r="J127" s="3">
+        <v>96.7</v>
+      </c>
+      <c r="K127" s="3">
+        <v>71</v>
+      </c>
+      <c r="L127" s="3">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -3990,8 +6294,26 @@
       <c r="F128" s="3">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G128" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="H128" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="I128" s="3">
+        <v>95.2</v>
+      </c>
+      <c r="J128" s="3">
+        <v>92.3</v>
+      </c>
+      <c r="K128" s="3">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="L128" s="3">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>127</v>
       </c>
@@ -4010,8 +6332,26 @@
       <c r="F129" s="3">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G129" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="H129" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="I129" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="J129" s="3">
+        <v>90</v>
+      </c>
+      <c r="K129" s="3">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L129" s="3">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>128</v>
       </c>
@@ -4030,8 +6370,26 @@
       <c r="F130" s="3">
         <v>84.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G130" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="H130" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="I130" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="J130" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="K130" s="3">
+        <v>68.3</v>
+      </c>
+      <c r="L130" s="3">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>129</v>
       </c>
@@ -4050,8 +6408,26 @@
       <c r="F131" s="3">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G131" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="H131" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="I131" s="3">
+        <v>87</v>
+      </c>
+      <c r="J131" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="K131" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="L131" s="3">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>130</v>
       </c>
@@ -4070,8 +6446,26 @@
       <c r="F132" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G132" s="3">
+        <v>95.9</v>
+      </c>
+      <c r="H132" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="I132" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="J132" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="K132" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="L132" s="3">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>131</v>
       </c>
@@ -4090,8 +6484,26 @@
       <c r="F133" s="3">
         <v>109.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G133" s="3">
+        <v>109.9</v>
+      </c>
+      <c r="H133" s="3">
+        <v>99</v>
+      </c>
+      <c r="I133" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="J133" s="3">
+        <v>107.6</v>
+      </c>
+      <c r="K133" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L133" s="3">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>132</v>
       </c>
@@ -4110,8 +6522,26 @@
       <c r="F134" s="3">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G134" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="H134" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="I134" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="J134" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="K134" s="3">
+        <v>70.8</v>
+      </c>
+      <c r="L134" s="3">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>133</v>
       </c>
@@ -4130,8 +6560,26 @@
       <c r="F135" s="3">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G135" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H135" s="3">
+        <v>80.8</v>
+      </c>
+      <c r="I135" s="3">
+        <v>75</v>
+      </c>
+      <c r="J135" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="K135" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="L135" s="3">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
@@ -4150,8 +6598,26 @@
       <c r="F136" s="3">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G136" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="H136" s="3">
+        <v>105.9</v>
+      </c>
+      <c r="I136" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="J136" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="K136" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="L136" s="3">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>135</v>
       </c>
@@ -4170,8 +6636,26 @@
       <c r="F137" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G137" s="3">
+        <v>102.6</v>
+      </c>
+      <c r="H137" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="I137" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="J137" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="K137" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="L137" s="3">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>136</v>
       </c>
@@ -4190,8 +6674,26 @@
       <c r="F138" s="3">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G138" s="3">
+        <v>112.3</v>
+      </c>
+      <c r="H138" s="3">
+        <v>95.8</v>
+      </c>
+      <c r="I138" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="J138" s="3">
+        <v>100</v>
+      </c>
+      <c r="K138" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="L138" s="3">
+        <v>121.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>137</v>
       </c>
@@ -4210,8 +6712,26 @@
       <c r="F139" s="3">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G139" s="3">
+        <v>113.6</v>
+      </c>
+      <c r="H139" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="I139" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="J139" s="3">
+        <v>100.2</v>
+      </c>
+      <c r="K139" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="L139" s="3">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>138</v>
       </c>
@@ -4230,8 +6750,26 @@
       <c r="F140" s="3">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G140" s="3">
+        <v>102</v>
+      </c>
+      <c r="H140" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="I140" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="J140" s="3">
+        <v>95.1</v>
+      </c>
+      <c r="K140" s="3">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="L140" s="3">
+        <v>116.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>139</v>
       </c>
@@ -4250,8 +6788,26 @@
       <c r="F141" s="3">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G141" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="H141" s="3">
+        <v>103.3</v>
+      </c>
+      <c r="I141" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="J141" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="K141" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="L141" s="3">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>140</v>
       </c>
@@ -4270,8 +6826,26 @@
       <c r="F142" s="3">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G142" s="3">
+        <v>88.8</v>
+      </c>
+      <c r="H142" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="I142" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="J142" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="K142" s="3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="L142" s="3">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -4290,8 +6864,26 @@
       <c r="F143" s="3">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G143" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="H143" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="I143" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="J143" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="K143" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="L143" s="3">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>142</v>
       </c>
@@ -4310,8 +6902,26 @@
       <c r="F144" s="3">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G144" s="3">
+        <v>97.4</v>
+      </c>
+      <c r="H144" s="3">
+        <v>95.1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>89.3</v>
+      </c>
+      <c r="J144" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="K144" s="3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="L144" s="3">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>143</v>
       </c>
@@ -4330,8 +6940,26 @@
       <c r="F145" s="3">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G145" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="H145" s="3">
+        <v>101.6</v>
+      </c>
+      <c r="I145" s="3">
+        <v>102.6</v>
+      </c>
+      <c r="J145" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="K145" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="L145" s="3">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>144</v>
       </c>
@@ -4350,8 +6978,26 @@
       <c r="F146" s="3">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G146" s="3">
+        <v>102.8</v>
+      </c>
+      <c r="H146" s="3">
+        <v>95.1</v>
+      </c>
+      <c r="I146" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="J146" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="K146" s="3">
+        <v>61.3</v>
+      </c>
+      <c r="L146" s="3">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>145</v>
       </c>
@@ -4370,8 +7016,26 @@
       <c r="F147" s="3">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G147" s="3">
+        <v>107.8</v>
+      </c>
+      <c r="H147" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="I147" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="J147" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="K147" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="L147" s="3">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>146</v>
       </c>
@@ -4390,8 +7054,26 @@
       <c r="F148" s="3">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G148" s="3">
+        <v>107.1</v>
+      </c>
+      <c r="H148" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="I148" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="J148" s="3">
+        <v>108.5</v>
+      </c>
+      <c r="K148" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="L148" s="3">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>147</v>
       </c>
@@ -4410,8 +7092,26 @@
       <c r="F149" s="3">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G149" s="3">
+        <v>109.6</v>
+      </c>
+      <c r="H149" s="3">
+        <v>89.2</v>
+      </c>
+      <c r="I149" s="3">
+        <v>103.2</v>
+      </c>
+      <c r="J149" s="3">
+        <v>102.8</v>
+      </c>
+      <c r="K149" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="L149" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>148</v>
       </c>
@@ -4430,8 +7130,26 @@
       <c r="F150" s="3">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G150" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="H150" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="I150" s="3">
+        <v>105.7</v>
+      </c>
+      <c r="J150" s="3">
+        <v>104.4</v>
+      </c>
+      <c r="K150" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="L150" s="3">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
@@ -4450,8 +7168,26 @@
       <c r="F151" s="3">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G151" s="3">
+        <v>93.6</v>
+      </c>
+      <c r="H151" s="3">
+        <v>95.9</v>
+      </c>
+      <c r="I151" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="J151" s="3">
+        <v>101.8</v>
+      </c>
+      <c r="K151" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="L151" s="3">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>150</v>
       </c>
@@ -4470,8 +7206,26 @@
       <c r="F152" s="3">
         <v>84.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G152" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="H152" s="3">
+        <v>92.9</v>
+      </c>
+      <c r="I152" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="J152" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="K152" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="L152" s="3">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>151</v>
       </c>
@@ -4490,8 +7244,26 @@
       <c r="F153" s="3">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G153" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="H153" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="I153" s="3">
+        <v>101.4</v>
+      </c>
+      <c r="J153" s="3">
+        <v>91.5</v>
+      </c>
+      <c r="K153" s="3">
+        <v>57.9</v>
+      </c>
+      <c r="L153" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
@@ -4510,8 +7282,26 @@
       <c r="F154" s="3">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G154" s="3">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H154" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="I154" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="J154" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="K154" s="3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="L154" s="3">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>153</v>
       </c>
@@ -4530,8 +7320,26 @@
       <c r="F155" s="3">
         <v>68.7</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G155" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H155" s="3">
+        <v>100.8</v>
+      </c>
+      <c r="I155" s="3">
+        <v>106</v>
+      </c>
+      <c r="J155" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="K155" s="3">
+        <v>73.3</v>
+      </c>
+      <c r="L155" s="3">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>154</v>
       </c>
@@ -4550,8 +7358,26 @@
       <c r="F156" s="3">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G156" s="3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H156" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="I156" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="J156" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="K156" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="L156" s="3">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>155</v>
       </c>
@@ -4570,8 +7396,26 @@
       <c r="F157" s="3">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G157" s="3">
+        <v>82</v>
+      </c>
+      <c r="H157" s="3">
+        <v>104.1</v>
+      </c>
+      <c r="I157" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="J157" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="K157" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="L157" s="3">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>156</v>
       </c>
@@ -4590,8 +7434,26 @@
       <c r="F158" s="3">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G158" s="3">
+        <v>71.3</v>
+      </c>
+      <c r="H158" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="I158" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="J158" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="K158" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="L158" s="3">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>157</v>
       </c>
@@ -4610,8 +7472,26 @@
       <c r="F159" s="3">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G159" s="3">
+        <v>72.2</v>
+      </c>
+      <c r="H159" s="3">
+        <v>90.4</v>
+      </c>
+      <c r="I159" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="J159" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="K159" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="L159" s="3">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>158</v>
       </c>
@@ -4630,8 +7510,26 @@
       <c r="F160" s="3">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G160" s="3">
+        <v>89</v>
+      </c>
+      <c r="H160" s="3">
+        <v>100.7</v>
+      </c>
+      <c r="I160" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="J160" s="3">
+        <v>91</v>
+      </c>
+      <c r="K160" s="3">
+        <v>73.7</v>
+      </c>
+      <c r="L160" s="3">
+        <v>110.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>159</v>
       </c>
@@ -4650,8 +7548,26 @@
       <c r="F161" s="3">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G161" s="3">
+        <v>91.1</v>
+      </c>
+      <c r="H161" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="I161" s="3">
+        <v>100.3</v>
+      </c>
+      <c r="J161" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="K161" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="L161" s="3">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>160</v>
       </c>
@@ -4670,8 +7586,26 @@
       <c r="F162" s="3">
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G162" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="H162" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="I162" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="J162" s="3">
+        <v>95.9</v>
+      </c>
+      <c r="K162" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="L162" s="3">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>161</v>
       </c>
@@ -4690,8 +7624,26 @@
       <c r="F163" s="3">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G163" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="H163" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="I163" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="J163" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="K163" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="L163" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>162</v>
       </c>
@@ -4710,8 +7662,26 @@
       <c r="F164" s="3">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G164" s="3">
+        <v>103.2</v>
+      </c>
+      <c r="H164" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="I164" s="3">
+        <v>104.3</v>
+      </c>
+      <c r="J164" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="K164" s="3">
+        <v>86.2</v>
+      </c>
+      <c r="L164" s="3">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>163</v>
       </c>
@@ -4730,8 +7700,26 @@
       <c r="F165" s="3">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G165" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="H165" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="I165" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="J165" s="3">
+        <v>90.4</v>
+      </c>
+      <c r="K165" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="L165" s="3">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>164</v>
       </c>
@@ -4750,8 +7738,26 @@
       <c r="F166" s="3">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G166" s="3">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="H166" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="I166" s="3">
+        <v>97.6</v>
+      </c>
+      <c r="J166" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="K166" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L166" s="3">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
@@ -4770,8 +7776,26 @@
       <c r="F167" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G167" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="H167" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="I167" s="3">
+        <v>105.6</v>
+      </c>
+      <c r="J167" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="K167" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="L167" s="3">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
@@ -4790,8 +7814,26 @@
       <c r="F168" s="3">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G168" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="H168" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="I168" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="J168" s="3">
+        <v>104.2</v>
+      </c>
+      <c r="K168" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="L168" s="3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
@@ -4810,8 +7852,26 @@
       <c r="F169" s="3">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G169" s="3">
+        <v>102.4</v>
+      </c>
+      <c r="H169" s="3">
+        <v>101.9</v>
+      </c>
+      <c r="I169" s="3">
+        <v>111.3</v>
+      </c>
+      <c r="J169" s="3">
+        <v>98</v>
+      </c>
+      <c r="K169" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="L169" s="3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
@@ -4830,8 +7890,26 @@
       <c r="F170" s="3">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G170" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H170" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="I170" s="3">
+        <v>79</v>
+      </c>
+      <c r="J170" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="K170" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="L170" s="3">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
@@ -4850,8 +7928,26 @@
       <c r="F171" s="3">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G171" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="H171" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="I171" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="J171" s="3">
+        <v>89</v>
+      </c>
+      <c r="K171" s="3">
+        <v>77.8</v>
+      </c>
+      <c r="L171" s="3">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
@@ -4870,8 +7966,26 @@
       <c r="F172" s="3">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G172" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="H172" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="I172" s="3">
+        <v>97.1</v>
+      </c>
+      <c r="J172" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="K172" s="3">
+        <v>85</v>
+      </c>
+      <c r="L172" s="3">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>171</v>
       </c>
@@ -4890,8 +8004,26 @@
       <c r="F173" s="3">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G173" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="H173" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="I173" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="J173" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K173" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="L173" s="3">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
@@ -4910,8 +8042,26 @@
       <c r="F174" s="3">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G174" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="H174" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="I174" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="J174" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="K174" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="L174" s="3">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>173</v>
       </c>
@@ -4930,8 +8080,26 @@
       <c r="F175" s="3">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G175" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="H175" s="3">
+        <v>100.1</v>
+      </c>
+      <c r="I175" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="J175" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="K175" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="L175" s="3">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
@@ -4950,8 +8118,26 @@
       <c r="F176" s="3">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G176" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="H176" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="I176" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="J176" s="3">
+        <v>104.2</v>
+      </c>
+      <c r="K176" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="L176" s="3">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>175</v>
       </c>
@@ -4970,8 +8156,26 @@
       <c r="F177" s="3">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G177" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="H177" s="3">
+        <v>90.7</v>
+      </c>
+      <c r="I177" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="J177" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="K177" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="L177" s="3">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>176</v>
       </c>
@@ -4990,8 +8194,26 @@
       <c r="F178" s="3">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G178" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="H178" s="3">
+        <v>98.9</v>
+      </c>
+      <c r="I178" s="3">
+        <v>101.6</v>
+      </c>
+      <c r="J178" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="K178" s="3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="L178" s="3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>177</v>
       </c>
@@ -5010,8 +8232,26 @@
       <c r="F179" s="3">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G179" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="H179" s="3">
+        <v>100.4</v>
+      </c>
+      <c r="I179" s="3">
+        <v>97.1</v>
+      </c>
+      <c r="J179" s="3">
+        <v>91.2</v>
+      </c>
+      <c r="K179" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="L179" s="3">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>178</v>
       </c>
@@ -5030,8 +8270,26 @@
       <c r="F180" s="3">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G180" s="3">
+        <v>111.6</v>
+      </c>
+      <c r="H180" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="I180" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="J180" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="K180" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="L180" s="3">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
@@ -5050,8 +8308,26 @@
       <c r="F181" s="3">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G181" s="3">
+        <v>124.3</v>
+      </c>
+      <c r="H181" s="3">
+        <v>107</v>
+      </c>
+      <c r="I181" s="3">
+        <v>107</v>
+      </c>
+      <c r="J181" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="K181" s="3">
+        <v>113.6</v>
+      </c>
+      <c r="L181" s="3">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
@@ -5070,8 +8346,26 @@
       <c r="F182" s="3">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G182" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="H182" s="3">
+        <v>101.5</v>
+      </c>
+      <c r="I182" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="J182" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="K182" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="L182" s="3">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
@@ -5090,8 +8384,26 @@
       <c r="F183" s="3">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G183" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="H183" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="I183" s="3">
+        <v>88.5</v>
+      </c>
+      <c r="J183" s="3">
+        <v>86.9</v>
+      </c>
+      <c r="K183" s="3">
+        <v>80</v>
+      </c>
+      <c r="L183" s="3">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
@@ -5110,8 +8422,26 @@
       <c r="F184" s="3">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G184" s="3">
+        <v>115.2</v>
+      </c>
+      <c r="H184" s="3">
+        <v>112.2</v>
+      </c>
+      <c r="I184" s="3">
+        <v>105.9</v>
+      </c>
+      <c r="J184" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="K184" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="L184" s="3">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>183</v>
       </c>
@@ -5130,8 +8460,26 @@
       <c r="F185" s="3">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G185" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="H185" s="3">
+        <v>100.6</v>
+      </c>
+      <c r="I185" s="3">
+        <v>106.7</v>
+      </c>
+      <c r="J185" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="K185" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="L185" s="3">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>184</v>
       </c>
@@ -5150,8 +8498,26 @@
       <c r="F186" s="3">
         <v>83.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G186" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="H186" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="I186" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="J186" s="3">
+        <v>98</v>
+      </c>
+      <c r="K186" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="L186" s="3">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>185</v>
       </c>
@@ -5170,8 +8536,26 @@
       <c r="F187" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G187" s="3">
+        <v>109.2</v>
+      </c>
+      <c r="H187" s="3">
+        <v>101.4</v>
+      </c>
+      <c r="I187" s="3">
+        <v>106.2</v>
+      </c>
+      <c r="J187" s="3">
+        <v>104</v>
+      </c>
+      <c r="K187" s="3">
+        <v>102</v>
+      </c>
+      <c r="L187" s="3">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -5190,8 +8574,26 @@
       <c r="F188" s="3">
         <v>81.099999999999994</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G188" s="3">
+        <v>108</v>
+      </c>
+      <c r="H188" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="I188" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="J188" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="K188" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="L188" s="3">
+        <v>126.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>187</v>
       </c>
@@ -5210,8 +8612,26 @@
       <c r="F189" s="3">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G189" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="H189" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="I189" s="3">
+        <v>91.2</v>
+      </c>
+      <c r="J189" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="K189" s="3">
+        <v>100.3</v>
+      </c>
+      <c r="L189" s="3">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>188</v>
       </c>
@@ -5230,8 +8650,26 @@
       <c r="F190" s="3">
         <v>88.6</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G190" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="H190" s="3">
+        <v>97.7</v>
+      </c>
+      <c r="I190" s="3">
+        <v>100.3</v>
+      </c>
+      <c r="J190" s="3">
+        <v>95.8</v>
+      </c>
+      <c r="K190" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="L190" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>189</v>
       </c>
@@ -5250,8 +8688,26 @@
       <c r="F191" s="3">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G191" s="3">
+        <v>94.1</v>
+      </c>
+      <c r="H191" s="3">
+        <v>101.3</v>
+      </c>
+      <c r="I191" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="J191" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="K191" s="3">
+        <v>104</v>
+      </c>
+      <c r="L191" s="3">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>190</v>
       </c>
@@ -5270,8 +8726,26 @@
       <c r="F192" s="3">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G192" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="H192" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="I192" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="J192" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="K192" s="3">
+        <v>104.1</v>
+      </c>
+      <c r="L192" s="3">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>191</v>
       </c>
@@ -5290,8 +8764,26 @@
       <c r="F193" s="3">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G193" s="3">
+        <v>103</v>
+      </c>
+      <c r="H193" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="I193" s="3">
+        <v>110.4</v>
+      </c>
+      <c r="J193" s="3">
+        <v>113.4</v>
+      </c>
+      <c r="K193" s="3">
+        <v>130.9</v>
+      </c>
+      <c r="L193" s="3">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>192</v>
       </c>
@@ -5310,8 +8802,26 @@
       <c r="F194" s="3">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G194" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="H194" s="3">
+        <v>91</v>
+      </c>
+      <c r="I194" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="J194" s="3">
+        <v>94.7</v>
+      </c>
+      <c r="K194" s="3">
+        <v>89.6</v>
+      </c>
+      <c r="L194" s="3">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
@@ -5330,8 +8840,26 @@
       <c r="F195" s="3">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G195" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="H195" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="I195" s="3">
+        <v>87.8</v>
+      </c>
+      <c r="J195" s="3">
+        <v>92.4</v>
+      </c>
+      <c r="K195" s="3">
+        <v>82.8</v>
+      </c>
+      <c r="L195" s="3">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
@@ -5350,8 +8878,26 @@
       <c r="F196" s="3">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G196" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="H196" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="I196" s="3">
+        <v>107.4</v>
+      </c>
+      <c r="J196" s="3">
+        <v>110.5</v>
+      </c>
+      <c r="K196" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="L196" s="3">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
@@ -5370,8 +8916,26 @@
       <c r="F197" s="3">
         <v>87.9</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G197" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="H197" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="I197" s="3">
+        <v>97.1</v>
+      </c>
+      <c r="J197" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="K197" s="3">
+        <v>108.6</v>
+      </c>
+      <c r="L197" s="3">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
@@ -5390,8 +8954,26 @@
       <c r="F198" s="3">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G198" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="H198" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="I198" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="J198" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="K198" s="3">
+        <v>111.4</v>
+      </c>
+      <c r="L198" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
@@ -5410,8 +8992,26 @@
       <c r="F199" s="3">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G199" s="3">
+        <v>105.9</v>
+      </c>
+      <c r="H199" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="I199" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="J199" s="3">
+        <v>106.1</v>
+      </c>
+      <c r="K199" s="3">
+        <v>127.4</v>
+      </c>
+      <c r="L199" s="3">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
@@ -5430,8 +9030,26 @@
       <c r="F200" s="3">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G200" s="3">
+        <v>100.6</v>
+      </c>
+      <c r="H200" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="I200" s="3">
+        <v>97.3</v>
+      </c>
+      <c r="J200" s="3">
+        <v>100</v>
+      </c>
+      <c r="K200" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="L200" s="3">
+        <v>136.80000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>199</v>
       </c>
@@ -5450,8 +9068,26 @@
       <c r="F201" s="3">
         <v>82.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G201" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="H201" s="3">
+        <v>84.9</v>
+      </c>
+      <c r="I201" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="J201" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="K201" s="3">
+        <v>87.8</v>
+      </c>
+      <c r="L201" s="3">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>200</v>
       </c>
@@ -5470,8 +9106,26 @@
       <c r="F202" s="3">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="3">
+        <v>101.6</v>
+      </c>
+      <c r="H202" s="3">
+        <v>91.2</v>
+      </c>
+      <c r="I202" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="J202" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="K202" s="3">
+        <v>86</v>
+      </c>
+      <c r="L202" s="3">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>201</v>
       </c>
@@ -5490,8 +9144,26 @@
       <c r="F203" s="3">
         <v>86.8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G203" s="3">
+        <v>106.1</v>
+      </c>
+      <c r="H203" s="3">
+        <v>88.8</v>
+      </c>
+      <c r="I203" s="3">
+        <v>108.4</v>
+      </c>
+      <c r="J203" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="K203" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="L203" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>202</v>
       </c>
@@ -5510,8 +9182,26 @@
       <c r="F204" s="3">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G204" s="3">
+        <v>113.4</v>
+      </c>
+      <c r="H204" s="3">
+        <v>95.8</v>
+      </c>
+      <c r="I204" s="3">
+        <v>107.5</v>
+      </c>
+      <c r="J204" s="3">
+        <v>114.8</v>
+      </c>
+      <c r="K204" s="3">
+        <v>110.6</v>
+      </c>
+      <c r="L204" s="3">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>203</v>
       </c>
@@ -5530,8 +9220,26 @@
       <c r="F205" s="3">
         <v>115.9</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G205" s="3">
+        <v>136.9</v>
+      </c>
+      <c r="H205" s="3">
+        <v>108.1</v>
+      </c>
+      <c r="I205" s="3">
+        <v>125</v>
+      </c>
+      <c r="J205" s="3">
+        <v>121.6</v>
+      </c>
+      <c r="K205" s="3">
+        <v>116.3</v>
+      </c>
+      <c r="L205" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>204</v>
       </c>
@@ -5550,8 +9258,26 @@
       <c r="F206" s="3">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G206" s="3">
+        <v>109.2</v>
+      </c>
+      <c r="H206" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="I206" s="3">
+        <v>96.7</v>
+      </c>
+      <c r="J206" s="3">
+        <v>95.5</v>
+      </c>
+      <c r="K206" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="L206" s="3">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>205</v>
       </c>
@@ -5570,8 +9296,26 @@
       <c r="F207" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G207" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="H207" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="I207" s="3">
+        <v>102.9</v>
+      </c>
+      <c r="J207" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="K207" s="3">
+        <v>86.9</v>
+      </c>
+      <c r="L207" s="3">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>206</v>
       </c>
@@ -5590,8 +9334,26 @@
       <c r="F208" s="3">
         <v>100.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G208" s="3">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="H208" s="3">
+        <v>102.4</v>
+      </c>
+      <c r="I208" s="3">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="J208" s="3">
+        <v>115.8</v>
+      </c>
+      <c r="K208" s="3">
+        <v>113.1</v>
+      </c>
+      <c r="L208" s="3">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>207</v>
       </c>
@@ -5610,8 +9372,26 @@
       <c r="F209" s="3">
         <v>87.7</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G209" s="3">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="H209" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="I209" s="3">
+        <v>113.6</v>
+      </c>
+      <c r="J209" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="K209" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="L209" s="3">
+        <v>122.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -5630,8 +9410,26 @@
       <c r="F210" s="3">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G210" s="3">
+        <v>148.9</v>
+      </c>
+      <c r="H210" s="3">
+        <v>86.8</v>
+      </c>
+      <c r="I210" s="3">
+        <v>121.7</v>
+      </c>
+      <c r="J210" s="3">
+        <v>111.5</v>
+      </c>
+      <c r="K210" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="L210" s="3">
+        <v>121.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -5650,8 +9448,26 @@
       <c r="F211" s="3">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G211" s="3">
+        <v>162.6</v>
+      </c>
+      <c r="H211" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="I211" s="3">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="J211" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="K211" s="3">
+        <v>113.1</v>
+      </c>
+      <c r="L211" s="3">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>210</v>
       </c>
@@ -5670,8 +9486,26 @@
       <c r="F212" s="3">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G212" s="3">
+        <v>142.9</v>
+      </c>
+      <c r="H212" s="3">
+        <v>92</v>
+      </c>
+      <c r="I212" s="3">
+        <v>119.1</v>
+      </c>
+      <c r="J212" s="3">
+        <v>100.8</v>
+      </c>
+      <c r="K212" s="3">
+        <v>101</v>
+      </c>
+      <c r="L212" s="3">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>211</v>
       </c>
@@ -5690,8 +9524,26 @@
       <c r="F213" s="3">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G213" s="3">
+        <v>130.4</v>
+      </c>
+      <c r="H213" s="3">
+        <v>90.9</v>
+      </c>
+      <c r="I213" s="3">
+        <v>121</v>
+      </c>
+      <c r="J213" s="3">
+        <v>103.6</v>
+      </c>
+      <c r="K213" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="L213" s="3">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>212</v>
       </c>
@@ -5710,8 +9562,26 @@
       <c r="F214" s="3">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G214" s="3">
+        <v>138.1</v>
+      </c>
+      <c r="H214" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="I214" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="J214" s="3">
+        <v>109.5</v>
+      </c>
+      <c r="K214" s="3">
+        <v>102</v>
+      </c>
+      <c r="L214" s="3">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>213</v>
       </c>
@@ -5730,8 +9600,26 @@
       <c r="F215" s="3">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G215" s="3">
+        <v>105.9</v>
+      </c>
+      <c r="H215" s="3">
+        <v>87.4</v>
+      </c>
+      <c r="I215" s="3">
+        <v>104.2</v>
+      </c>
+      <c r="J215" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="K215" s="3">
+        <v>90.9</v>
+      </c>
+      <c r="L215" s="3">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>214</v>
       </c>
@@ -5750,8 +9638,26 @@
       <c r="F216" s="3">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G216" s="3">
+        <v>126.9</v>
+      </c>
+      <c r="H216" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="I216" s="3">
+        <v>126.6</v>
+      </c>
+      <c r="J216" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="K216" s="3">
+        <v>116.5</v>
+      </c>
+      <c r="L216" s="3">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>215</v>
       </c>
@@ -5770,8 +9676,26 @@
       <c r="F217" s="3">
         <v>119.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G217" s="3">
+        <v>154.9</v>
+      </c>
+      <c r="H217" s="3">
+        <v>106.7</v>
+      </c>
+      <c r="I217" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="J217" s="3">
+        <v>106</v>
+      </c>
+      <c r="K217" s="3">
+        <v>107.8</v>
+      </c>
+      <c r="L217" s="3">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>216</v>
       </c>
@@ -5790,8 +9714,26 @@
       <c r="F218" s="3">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G218" s="3">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="H218" s="3">
+        <v>101</v>
+      </c>
+      <c r="I218" s="3">
+        <v>125.3</v>
+      </c>
+      <c r="J218" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="K218" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="L218" s="3">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
@@ -5810,8 +9752,26 @@
       <c r="F219" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G219" s="3">
+        <v>126.7</v>
+      </c>
+      <c r="H219" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="I219" s="3">
+        <v>112.3</v>
+      </c>
+      <c r="J219" s="3">
+        <v>87</v>
+      </c>
+      <c r="K219" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="L219" s="3">
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
@@ -5830,8 +9790,26 @@
       <c r="F220" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G220" s="3">
+        <v>149.6</v>
+      </c>
+      <c r="H220" s="3">
+        <v>100.2</v>
+      </c>
+      <c r="I220" s="3">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="J220" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="K220" s="3">
+        <v>116.8</v>
+      </c>
+      <c r="L220" s="3">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
@@ -5850,8 +9828,26 @@
       <c r="F221" s="3">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G221" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="H221" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="I221" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="J221" s="3">
+        <v>101.1</v>
+      </c>
+      <c r="K221" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="L221" s="3">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
@@ -5870,8 +9866,26 @@
       <c r="F222" s="3">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G222" s="3">
+        <v>134.9</v>
+      </c>
+      <c r="H222" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="I222" s="3">
+        <v>132.1</v>
+      </c>
+      <c r="J222" s="3">
+        <v>103.3</v>
+      </c>
+      <c r="K222" s="3">
+        <v>108</v>
+      </c>
+      <c r="L222" s="3">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
@@ -5890,8 +9904,26 @@
       <c r="F223" s="3">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G223" s="3">
+        <v>126.2</v>
+      </c>
+      <c r="H223" s="3">
+        <v>90.7</v>
+      </c>
+      <c r="I223" s="3">
+        <v>137.6</v>
+      </c>
+      <c r="J223" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="K223" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="L223" s="3">
+        <v>122.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
@@ -5910,8 +9942,26 @@
       <c r="F224" s="3">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G224" s="3">
+        <v>113.5</v>
+      </c>
+      <c r="H224" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="I224" s="3">
+        <v>129.5</v>
+      </c>
+      <c r="J224" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="K224" s="3">
+        <v>103.4</v>
+      </c>
+      <c r="L224" s="3">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
@@ -5930,8 +9980,26 @@
       <c r="F225" s="3">
         <v>86.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G225" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="H225" s="3">
+        <v>91.8</v>
+      </c>
+      <c r="I225" s="3">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="J225" s="3">
+        <v>101.7</v>
+      </c>
+      <c r="K225" s="3">
+        <v>103.4</v>
+      </c>
+      <c r="L225" s="3">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>224</v>
       </c>
@@ -5950,8 +10018,26 @@
       <c r="F226" s="3">
         <v>91.4</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G226" s="3">
+        <v>104.1</v>
+      </c>
+      <c r="H226" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="I226" s="3">
+        <v>126.4</v>
+      </c>
+      <c r="J226" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="K226" s="3">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="L226" s="3">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>225</v>
       </c>
@@ -5970,8 +10056,26 @@
       <c r="F227" s="3">
         <v>91.1</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G227" s="3">
+        <v>103.6</v>
+      </c>
+      <c r="H227" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="I227" s="3">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="J227" s="3">
+        <v>106.2</v>
+      </c>
+      <c r="K227" s="3">
+        <v>108.2</v>
+      </c>
+      <c r="L227" s="3">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
@@ -5990,8 +10094,26 @@
       <c r="F228" s="3">
         <v>92.4</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="3">
+        <v>102</v>
+      </c>
+      <c r="H228" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="I228" s="3">
+        <v>127.3</v>
+      </c>
+      <c r="J228" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="K228" s="3">
+        <v>108.9</v>
+      </c>
+      <c r="L228" s="3">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
@@ -6010,8 +10132,26 @@
       <c r="F229" s="3">
         <v>120.8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G229" s="3">
+        <v>110.6</v>
+      </c>
+      <c r="H229" s="3">
+        <v>101.8</v>
+      </c>
+      <c r="I229" s="3">
+        <v>137.9</v>
+      </c>
+      <c r="J229" s="3">
+        <v>108.8</v>
+      </c>
+      <c r="K229" s="3">
+        <v>108.6</v>
+      </c>
+      <c r="L229" s="3">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>228</v>
       </c>
@@ -6030,8 +10170,26 @@
       <c r="F230" s="3">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G230" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="H230" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="I230" s="3">
+        <v>128.1</v>
+      </c>
+      <c r="J230" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="K230" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="L230" s="3">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>229</v>
       </c>
@@ -6050,8 +10208,26 @@
       <c r="F231" s="3">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G231" s="3">
+        <v>82</v>
+      </c>
+      <c r="H231" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I231" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="J231" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="K231" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="L231" s="3">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -6070,8 +10246,26 @@
       <c r="F232" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G232" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="H232" s="3">
+        <v>101</v>
+      </c>
+      <c r="I232" s="3">
+        <v>134.4</v>
+      </c>
+      <c r="J232" s="3">
+        <v>100.6</v>
+      </c>
+      <c r="K232" s="3">
+        <v>111</v>
+      </c>
+      <c r="L232" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
@@ -6090,8 +10284,26 @@
       <c r="F233" s="3">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G233" s="3">
+        <v>115.2</v>
+      </c>
+      <c r="H233" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="I233" s="3">
+        <v>141.6</v>
+      </c>
+      <c r="J233" s="3">
+        <v>103.9</v>
+      </c>
+      <c r="K233" s="3">
+        <v>106.8</v>
+      </c>
+      <c r="L233" s="3">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
@@ -6110,8 +10322,26 @@
       <c r="F234" s="3">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G234" s="3">
+        <v>106.4</v>
+      </c>
+      <c r="H234" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="I234" s="3">
+        <v>133.4</v>
+      </c>
+      <c r="J234" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="K234" s="3">
+        <v>101.6</v>
+      </c>
+      <c r="L234" s="3">
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>233</v>
       </c>
@@ -6130,8 +10360,26 @@
       <c r="F235" s="3">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G235" s="3">
+        <v>106</v>
+      </c>
+      <c r="H235" s="3">
+        <v>95.2</v>
+      </c>
+      <c r="I235" s="3">
+        <v>123.9</v>
+      </c>
+      <c r="J235" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="K235" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="L235" s="3">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
@@ -6150,8 +10398,26 @@
       <c r="F236" s="3">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G236" s="3">
+        <v>95</v>
+      </c>
+      <c r="H236" s="3">
+        <v>98.9</v>
+      </c>
+      <c r="I236" s="3">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="J236" s="3">
+        <v>101.9</v>
+      </c>
+      <c r="K236" s="3">
+        <v>108.1</v>
+      </c>
+      <c r="L236" s="3">
+        <v>165.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>235</v>
       </c>
@@ -6170,8 +10436,26 @@
       <c r="F237" s="3">
         <v>90.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G237" s="3">
+        <v>87.4</v>
+      </c>
+      <c r="H237" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="I237" s="3">
+        <v>125.5</v>
+      </c>
+      <c r="J237" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="K237" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="L237" s="3">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>236</v>
       </c>
@@ -6190,8 +10474,26 @@
       <c r="F238" s="3">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G238" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="H238" s="3">
+        <v>95.2</v>
+      </c>
+      <c r="I238" s="3">
+        <v>124.7</v>
+      </c>
+      <c r="J238" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="K238" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="L238" s="3">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>237</v>
       </c>
@@ -6210,8 +10512,26 @@
       <c r="F239" s="3">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G239" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="H239" s="3">
+        <v>100.8</v>
+      </c>
+      <c r="I239" s="3">
+        <v>130.4</v>
+      </c>
+      <c r="J239" s="3">
+        <v>100.7</v>
+      </c>
+      <c r="K239" s="3">
+        <v>114.1</v>
+      </c>
+      <c r="L239" s="3">
+        <v>156.19999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>238</v>
       </c>
@@ -6230,8 +10550,26 @@
       <c r="F240" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G240" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="H240" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="I240" s="3">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="J240" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="K240" s="3">
+        <v>103.9</v>
+      </c>
+      <c r="L240" s="3">
+        <v>186.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>239</v>
       </c>
@@ -6250,8 +10588,26 @@
       <c r="F241" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G241" s="3">
+        <v>119.2</v>
+      </c>
+      <c r="H241" s="3">
+        <v>105.8</v>
+      </c>
+      <c r="I241" s="3">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="J241" s="3">
+        <v>110.5</v>
+      </c>
+      <c r="K241" s="3">
+        <v>124.3</v>
+      </c>
+      <c r="L241" s="3">
+        <v>196.2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>240</v>
       </c>
@@ -6270,8 +10626,26 @@
       <c r="F242" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G242" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="H242" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="I242" s="3">
+        <v>114</v>
+      </c>
+      <c r="J242" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="K242" s="3">
+        <v>77.2</v>
+      </c>
+      <c r="L242" s="3">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>241</v>
       </c>
@@ -6290,8 +10664,26 @@
       <c r="F243" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G243" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="H243" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="I243" s="3">
+        <v>119.4</v>
+      </c>
+      <c r="J243" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="K243" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="L243" s="3">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>242</v>
       </c>
@@ -6310,8 +10702,26 @@
       <c r="F244" s="3">
         <v>109.8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G244" s="3">
+        <v>127.9</v>
+      </c>
+      <c r="H244" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="I244" s="3">
+        <v>138.5</v>
+      </c>
+      <c r="J244" s="3">
+        <v>102.2</v>
+      </c>
+      <c r="K244" s="3">
+        <v>119</v>
+      </c>
+      <c r="L244" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>243</v>
       </c>
@@ -6330,8 +10740,26 @@
       <c r="F245" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G245" s="3">
+        <v>116.4</v>
+      </c>
+      <c r="H245" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="I245" s="3">
+        <v>124.5</v>
+      </c>
+      <c r="J245" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="K245" s="3">
+        <v>120.3</v>
+      </c>
+      <c r="L245" s="3">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>244</v>
       </c>
@@ -6350,8 +10778,26 @@
       <c r="F246" s="3">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G246" s="3">
+        <v>120.2</v>
+      </c>
+      <c r="H246" s="3">
+        <v>92</v>
+      </c>
+      <c r="I246" s="3">
+        <v>107.9</v>
+      </c>
+      <c r="J246" s="3">
+        <v>98</v>
+      </c>
+      <c r="K246" s="3">
+        <v>114.6</v>
+      </c>
+      <c r="L246" s="3">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>245</v>
       </c>
@@ -6370,8 +10816,26 @@
       <c r="F247" s="3">
         <v>117.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G247" s="3">
+        <v>131.6</v>
+      </c>
+      <c r="H247" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="I247" s="3">
+        <v>132.9</v>
+      </c>
+      <c r="J247" s="3">
+        <v>102</v>
+      </c>
+      <c r="K247" s="3">
+        <v>125.2</v>
+      </c>
+      <c r="L247" s="3">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>246</v>
       </c>
@@ -6390,8 +10854,26 @@
       <c r="F248" s="3">
         <v>91.4</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G248" s="3">
+        <v>126.3</v>
+      </c>
+      <c r="H248" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="I248" s="3">
+        <v>137.5</v>
+      </c>
+      <c r="J248" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="K248" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="L248" s="3">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
@@ -6410,8 +10892,26 @@
       <c r="F249" s="3">
         <v>91.7</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G249" s="3">
+        <v>102.9</v>
+      </c>
+      <c r="H249" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="I249" s="3">
+        <v>123.9</v>
+      </c>
+      <c r="J249" s="3">
+        <v>86.9</v>
+      </c>
+      <c r="K249" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="L249" s="3">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
@@ -6430,8 +10930,26 @@
       <c r="F250" s="3">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G250" s="3">
+        <v>109.4</v>
+      </c>
+      <c r="H250" s="3">
+        <v>101.9</v>
+      </c>
+      <c r="I250" s="3">
+        <v>130.4</v>
+      </c>
+      <c r="J250" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="K250" s="3">
+        <v>114.2</v>
+      </c>
+      <c r="L250" s="3">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
@@ -6450,8 +10968,26 @@
       <c r="F251" s="3">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G251" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="H251" s="3">
+        <v>98.9</v>
+      </c>
+      <c r="I251" s="3">
+        <v>130.6</v>
+      </c>
+      <c r="J251" s="3">
+        <v>97.2</v>
+      </c>
+      <c r="K251" s="3">
+        <v>112.4</v>
+      </c>
+      <c r="L251" s="3">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>250</v>
       </c>
@@ -6470,8 +11006,26 @@
       <c r="F252" s="3">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G252" s="3">
+        <v>112.7</v>
+      </c>
+      <c r="H252" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="I252" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="J252" s="3">
+        <v>100.3</v>
+      </c>
+      <c r="K252" s="3">
+        <v>123.2</v>
+      </c>
+      <c r="L252" s="3">
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>251</v>
       </c>
@@ -6490,8 +11044,26 @@
       <c r="F253" s="3">
         <v>126.8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G253" s="3">
+        <v>146.4</v>
+      </c>
+      <c r="H253" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="I253" s="3">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="J253" s="3">
+        <v>107</v>
+      </c>
+      <c r="K253" s="3">
+        <v>121.3</v>
+      </c>
+      <c r="L253" s="3">
+        <v>144.6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>252</v>
       </c>
@@ -6510,8 +11082,26 @@
       <c r="F254" s="3">
         <v>96.1</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G254" s="3">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="H254" s="3">
+        <v>102.5</v>
+      </c>
+      <c r="I254" s="3">
+        <v>139.9</v>
+      </c>
+      <c r="J254" s="3">
+        <v>90.5</v>
+      </c>
+      <c r="K254" s="3">
+        <v>88.8</v>
+      </c>
+      <c r="L254" s="3">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>253</v>
       </c>
@@ -6530,8 +11120,26 @@
       <c r="F255" s="3">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G255" s="3">
+        <v>114.1</v>
+      </c>
+      <c r="H255" s="3">
+        <v>87.7</v>
+      </c>
+      <c r="I255" s="3">
+        <v>136.5</v>
+      </c>
+      <c r="J255" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="K255" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="L255" s="3">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>254</v>
       </c>
@@ -6550,8 +11158,26 @@
       <c r="F256" s="3">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G256" s="3">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="H256" s="3">
+        <v>107.9</v>
+      </c>
+      <c r="I256" s="3">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="J256" s="3">
+        <v>101.4</v>
+      </c>
+      <c r="K256" s="3">
+        <v>118.9</v>
+      </c>
+      <c r="L256" s="3">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>255</v>
       </c>
@@ -6570,8 +11196,26 @@
       <c r="F257" s="3">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G257" s="3">
+        <v>157.9</v>
+      </c>
+      <c r="H257" s="3">
+        <v>104.3</v>
+      </c>
+      <c r="I257" s="3">
+        <v>147.1</v>
+      </c>
+      <c r="J257" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="K257" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="L257" s="3">
+        <v>146.30000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>256</v>
       </c>
@@ -6590,8 +11234,26 @@
       <c r="F258" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G258" s="3">
+        <v>139.6</v>
+      </c>
+      <c r="H258" s="3">
+        <v>102.4</v>
+      </c>
+      <c r="I258" s="3">
+        <v>145.6</v>
+      </c>
+      <c r="J258" s="3">
+        <v>91.1</v>
+      </c>
+      <c r="K258" s="3">
+        <v>116.4</v>
+      </c>
+      <c r="L258" s="3">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>257</v>
       </c>
@@ -6610,8 +11272,26 @@
       <c r="F259" s="3">
         <v>126.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G259" s="3">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="H259" s="3">
+        <v>106.4</v>
+      </c>
+      <c r="I259" s="3">
+        <v>154.6</v>
+      </c>
+      <c r="J259" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="K259" s="3">
+        <v>116.8</v>
+      </c>
+      <c r="L259" s="3">
+        <v>174.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>258</v>
       </c>
@@ -6630,8 +11310,26 @@
       <c r="F260" s="3">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G260" s="3">
+        <v>145.9</v>
+      </c>
+      <c r="H260" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="I260" s="3">
+        <v>146.9</v>
+      </c>
+      <c r="J260" s="3">
+        <v>90</v>
+      </c>
+      <c r="K260" s="3">
+        <v>107.8</v>
+      </c>
+      <c r="L260" s="3">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>259</v>
       </c>
@@ -6650,8 +11348,26 @@
       <c r="F261" s="3">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G261" s="3">
+        <v>119.4</v>
+      </c>
+      <c r="H261" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="I261" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="J261" s="3">
+        <v>86.3</v>
+      </c>
+      <c r="K261" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="L261" s="3">
+        <v>141.30000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>260</v>
       </c>
@@ -6670,8 +11386,26 @@
       <c r="F262" s="3">
         <v>108.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G262" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="H262" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="I262" s="3">
+        <v>133</v>
+      </c>
+      <c r="J262" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="K262" s="3">
+        <v>82</v>
+      </c>
+      <c r="L262" s="3">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
@@ -6690,8 +11424,26 @@
       <c r="F263" s="3">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G263" s="3">
+        <v>114</v>
+      </c>
+      <c r="H263" s="3">
+        <v>97.3</v>
+      </c>
+      <c r="I263" s="3">
+        <v>137.6</v>
+      </c>
+      <c r="J263" s="3">
+        <v>87.1</v>
+      </c>
+      <c r="K263" s="3">
+        <v>90.9</v>
+      </c>
+      <c r="L263" s="3">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>262</v>
       </c>
@@ -6710,8 +11462,26 @@
       <c r="F264" s="3">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G264" s="3">
+        <v>128.6</v>
+      </c>
+      <c r="H264" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="I264" s="3">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="J264" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="K264" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="L264" s="3">
+        <v>143.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>263</v>
       </c>
@@ -6730,8 +11500,26 @@
       <c r="F265" s="3">
         <v>145.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G265" s="3">
+        <v>154.4</v>
+      </c>
+      <c r="H265" s="3">
+        <v>124.8</v>
+      </c>
+      <c r="I265" s="3">
+        <v>173</v>
+      </c>
+      <c r="J265" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="K265" s="3">
+        <v>116.2</v>
+      </c>
+      <c r="L265" s="3">
+        <v>160.80000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>264</v>
       </c>
@@ -6750,8 +11538,26 @@
       <c r="F266" s="3">
         <v>97.1</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G266" s="3">
+        <v>124.4</v>
+      </c>
+      <c r="H266" s="3">
+        <v>109</v>
+      </c>
+      <c r="I266" s="3">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="J266" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="K266" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="L266" s="3">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>265</v>
       </c>
@@ -6770,8 +11576,26 @@
       <c r="F267" s="3">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G267" s="3">
+        <v>113.3</v>
+      </c>
+      <c r="H267" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="I267" s="3">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="J267" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="K267" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="L267" s="3">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>266</v>
       </c>
@@ -6790,8 +11614,26 @@
       <c r="F268" s="3">
         <v>122.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G268" s="3">
+        <v>140.9</v>
+      </c>
+      <c r="H268" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="I268" s="3">
+        <v>158.4</v>
+      </c>
+      <c r="J268" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="K268" s="3">
+        <v>104.4</v>
+      </c>
+      <c r="L268" s="3">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>267</v>
       </c>
@@ -6810,8 +11652,26 @@
       <c r="F269" s="3">
         <v>106.4</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G269" s="3">
+        <v>127.8</v>
+      </c>
+      <c r="H269" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="I269" s="3">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="J269" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="K269" s="3">
+        <v>106</v>
+      </c>
+      <c r="L269" s="3">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>268</v>
       </c>
@@ -6830,8 +11690,26 @@
       <c r="F270" s="3">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G270" s="3">
+        <v>149.5</v>
+      </c>
+      <c r="H270" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="I270" s="3">
+        <v>152</v>
+      </c>
+      <c r="J270" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="K270" s="3">
+        <v>118.1</v>
+      </c>
+      <c r="L270" s="3">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
@@ -6850,8 +11728,26 @@
       <c r="F271" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G271" s="3">
+        <v>157.1</v>
+      </c>
+      <c r="H271" s="3">
+        <v>106</v>
+      </c>
+      <c r="I271" s="3">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="J271" s="3">
+        <v>90.3</v>
+      </c>
+      <c r="K271" s="3">
+        <v>112.3</v>
+      </c>
+      <c r="L271" s="3">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
@@ -6870,8 +11766,26 @@
       <c r="F272" s="3">
         <v>101.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G272" s="3">
+        <v>142</v>
+      </c>
+      <c r="H272" s="3">
+        <v>107.1</v>
+      </c>
+      <c r="I272" s="3">
+        <v>158.4</v>
+      </c>
+      <c r="J272" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="K272" s="3">
+        <v>105</v>
+      </c>
+      <c r="L272" s="3">
+        <v>133.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>271</v>
       </c>
@@ -6890,8 +11804,26 @@
       <c r="F273" s="3">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G273" s="3">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="H273" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="I273" s="3">
+        <v>152.9</v>
+      </c>
+      <c r="J273" s="3">
+        <v>88.4</v>
+      </c>
+      <c r="K273" s="3">
+        <v>119.8</v>
+      </c>
+      <c r="L273" s="3">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>272</v>
       </c>
@@ -6910,8 +11842,26 @@
       <c r="F274" s="3">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G274" s="3">
+        <v>133</v>
+      </c>
+      <c r="H274" s="3">
+        <v>102.6</v>
+      </c>
+      <c r="I274" s="3">
+        <v>149.4</v>
+      </c>
+      <c r="J274" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="K274" s="3">
+        <v>108.9</v>
+      </c>
+      <c r="L274" s="3">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>273</v>
       </c>
@@ -6930,8 +11880,26 @@
       <c r="F275" s="3">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G275" s="3">
+        <v>130.9</v>
+      </c>
+      <c r="H275" s="3">
+        <v>110.7</v>
+      </c>
+      <c r="I275" s="3">
+        <v>154</v>
+      </c>
+      <c r="J275" s="3">
+        <v>86.3</v>
+      </c>
+      <c r="K275" s="3">
+        <v>119.5</v>
+      </c>
+      <c r="L275" s="3">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
@@ -6950,8 +11918,26 @@
       <c r="F276" s="3">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G276" s="3">
+        <v>149.4</v>
+      </c>
+      <c r="H276" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="I276" s="3">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="J276" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="K276" s="3">
+        <v>134.4</v>
+      </c>
+      <c r="L276" s="3">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
@@ -6970,8 +11956,26 @@
       <c r="F277" s="3">
         <v>144.9</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G277" s="3">
+        <v>168.7</v>
+      </c>
+      <c r="H277" s="3">
+        <v>115.2</v>
+      </c>
+      <c r="I277" s="3">
+        <v>174.3</v>
+      </c>
+      <c r="J277" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="K277" s="3">
+        <v>118</v>
+      </c>
+      <c r="L277" s="3">
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
@@ -6990,8 +11994,26 @@
       <c r="F278" s="3">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G278" s="3">
+        <v>112.2</v>
+      </c>
+      <c r="H278" s="3">
+        <v>102.7</v>
+      </c>
+      <c r="I278" s="3">
+        <v>152.6</v>
+      </c>
+      <c r="J278" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="K278" s="3">
+        <v>101.8</v>
+      </c>
+      <c r="L278" s="3">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
@@ -7010,8 +12032,26 @@
       <c r="F279" s="3">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G279" s="3">
+        <v>115.6</v>
+      </c>
+      <c r="H279" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="I279" s="3">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="J279" s="3">
+        <v>85.4</v>
+      </c>
+      <c r="K279" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="L279" s="3">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
@@ -7030,8 +12070,26 @@
       <c r="F280" s="3">
         <v>124.3</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G280" s="3">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="H280" s="3">
+        <v>101.3</v>
+      </c>
+      <c r="I280" s="3">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="J280" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="K280" s="3">
+        <v>118.5</v>
+      </c>
+      <c r="L280" s="3">
+        <v>107.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
@@ -7050,8 +12108,26 @@
       <c r="F281" s="3">
         <v>97.3</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G281" s="3">
+        <v>143.5</v>
+      </c>
+      <c r="H281" s="3">
+        <v>90</v>
+      </c>
+      <c r="I281" s="3">
+        <v>147.4</v>
+      </c>
+      <c r="J281" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="K281" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="L281" s="3">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>280</v>
       </c>
@@ -7070,8 +12146,26 @@
       <c r="F282" s="3">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G282" s="3">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="H282" s="3">
+        <v>89.7</v>
+      </c>
+      <c r="I282" s="3">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="J282" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="K282" s="3">
+        <v>114.6</v>
+      </c>
+      <c r="L282" s="3">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>281</v>
       </c>
@@ -7090,8 +12184,26 @@
       <c r="F283" s="3">
         <v>122.1</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G283" s="3">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="H283" s="3">
+        <v>93.9</v>
+      </c>
+      <c r="I283" s="3">
+        <v>162.9</v>
+      </c>
+      <c r="J283" s="3">
+        <v>88.7</v>
+      </c>
+      <c r="K283" s="3">
+        <v>136</v>
+      </c>
+      <c r="L283" s="3">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>282</v>
       </c>
@@ -7110,8 +12222,26 @@
       <c r="F284" s="3">
         <v>93.6</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G284" s="3">
+        <v>120.1</v>
+      </c>
+      <c r="H284" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="I284" s="3">
+        <v>149.5</v>
+      </c>
+      <c r="J284" s="3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="K284" s="3">
+        <v>89.4</v>
+      </c>
+      <c r="L284" s="3">
+        <v>131.9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>283</v>
       </c>
@@ -7130,8 +12260,26 @@
       <c r="F285" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G285" s="3">
+        <v>112.7</v>
+      </c>
+      <c r="H285" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="I285" s="3">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="J285" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="K285" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="L285" s="3">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>284</v>
       </c>
@@ -7149,6 +12297,24 @@
       </c>
       <c r="F286" s="3">
         <v>103.3</v>
+      </c>
+      <c r="G286" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="H286" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="I286" s="3">
+        <v>143.1</v>
+      </c>
+      <c r="J286" s="3">
+        <v>83.7</v>
+      </c>
+      <c r="K286" s="3">
+        <v>96.3</v>
+      </c>
+      <c r="L286" s="3">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
